--- a/frabk_hertz_and_esr_amrith/ESR_MSR_data.xlsx
+++ b/frabk_hertz_and_esr_amrith/ESR_MSR_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER.DESKTOP-AET6VDV\Desktop\sem 5\optics lab\P_345-P_343-Laboratory-Resources\frabk_hertz_and_esr_amrith\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF947A6C-0871-4560-97E8-FC7E99886282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4157F5-4F70-490B-A286-6C90A4AD4824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="3276" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13.91MHz" sheetId="2" r:id="rId1"/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE60CF7-F755-4C88-B8E5-4761E65EA43C}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7B47D-80A9-4C3C-80FC-B2BDA244A6BA}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,7 +1376,7 @@
         <v>1.4327680443114301</v>
       </c>
       <c r="K2">
-        <f>1/D2</f>
+        <f t="shared" ref="K2:K10" si="0">1/D2</f>
         <v>0.16949152542372881</v>
       </c>
     </row>
@@ -1391,11 +1391,11 @@
         <v>9.36</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E10" si="0">C3/2</f>
+        <f t="shared" ref="D3:D10" si="1">C3/2</f>
         <v>4.68</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E10" si="1">0.00368*B3 - 0.016</f>
+        <f t="shared" ref="E3:E10" si="2">0.00368*B3 - 0.016</f>
         <v>0.65007999999999999</v>
       </c>
       <c r="F3" s="2">
@@ -1403,18 +1403,18 @@
         <v>1.8387039052550034</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G10" si="2">F3*D3/14.6</f>
+        <f t="shared" ref="G3:G10" si="3">F3*D3/14.6</f>
         <v>0.58939275867078178</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H9" si="3">10^5*6.625*10^-27 * 16.11 / (G3 * 0.927*10^-20)</f>
+        <f t="shared" ref="H3:H9" si="4">10^5*6.625*10^-27 * 16.11 / (G3 * 0.927*10^-20)</f>
         <v>1.953425681803149</v>
       </c>
       <c r="J3">
         <v>1.8387039052550034</v>
       </c>
       <c r="K3">
-        <f>1/D3</f>
+        <f t="shared" si="0"/>
         <v>0.21367521367521369</v>
       </c>
     </row>
@@ -1429,30 +1429,30 @@
         <v>7.6</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78991999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F3:F10" si="4">2*SQRT(2)*E4</f>
+        <f t="shared" ref="F4:F10" si="5">2*SQRT(2)*E4</f>
         <v>2.2342311543795104</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58151221826316024</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9798981264659863</v>
       </c>
       <c r="J4">
         <v>2.2342311543795104</v>
       </c>
       <c r="K4">
-        <f>1/D4</f>
+        <f t="shared" si="0"/>
         <v>0.26315789473684209</v>
       </c>
     </row>
@@ -1467,30 +1467,30 @@
         <v>6.32</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.16</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9224</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6089411798658859</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56467494029973975</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0389340296297922</v>
       </c>
       <c r="J5">
         <v>2.6089411798658859</v>
       </c>
       <c r="K5">
-        <f>1/D5</f>
+        <f t="shared" si="0"/>
         <v>0.31645569620253161</v>
       </c>
     </row>
@@ -1505,30 +1505,30 @@
         <v>5.4</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0585599999999999</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9940598171713271</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55369599358647836</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0793629803942055</v>
       </c>
       <c r="J6">
         <v>2.9940598171713271</v>
       </c>
       <c r="K6">
-        <f>1/D6</f>
+        <f t="shared" si="0"/>
         <v>0.37037037037037035</v>
       </c>
     </row>
@@ -1543,30 +1543,30 @@
         <v>4.76</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.38</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.18736</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3583612308386366</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54745888557506539</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1030528169196079</v>
       </c>
       <c r="J7">
         <v>3.3583612308386366</v>
       </c>
       <c r="K7">
-        <f>1/D7</f>
+        <f t="shared" si="0"/>
         <v>0.42016806722689076</v>
       </c>
     </row>
@@ -1581,30 +1581,30 @@
         <v>4.16</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.08</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.31616</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7226626445059456</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53035193839536765</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1708885517412995</v>
       </c>
       <c r="J8">
         <v>3.7226626445059456</v>
       </c>
       <c r="K8">
-        <f>1/D8</f>
+        <f t="shared" si="0"/>
         <v>0.48076923076923073</v>
       </c>
     </row>
@@ -1619,30 +1619,30 @@
         <v>3.84</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.92</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4486399999999999</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0973726699923212</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53883257030036003</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1367211540581614</v>
       </c>
       <c r="J9">
         <v>4.0973726699923212</v>
       </c>
       <c r="K9">
-        <f>1/D9</f>
+        <f t="shared" si="0"/>
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -1657,19 +1657,19 @@
         <v>3.52</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.76</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.57744</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4616740836596307</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53784564296170889</v>
       </c>
       <c r="H10" s="2">
@@ -1680,7 +1680,7 @@
         <v>4.4616740836596307</v>
       </c>
       <c r="K10">
-        <f>1/D10</f>
+        <f t="shared" si="0"/>
         <v>0.56818181818181823</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
